--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value882.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value882.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.26658916267209</v>
+        <v>3.231869697570801</v>
       </c>
       <c r="B1">
-        <v>2.486584556313859</v>
+        <v>2.400803804397583</v>
       </c>
       <c r="C1">
-        <v>3.283574111050329</v>
+        <v>1.995851159095764</v>
       </c>
       <c r="D1">
-        <v>3.425841626447554</v>
+        <v>1.896677613258362</v>
       </c>
       <c r="E1">
-        <v>1.094511616990035</v>
+        <v>1.684993863105774</v>
       </c>
     </row>
   </sheetData>
